--- a/daily_training_report.xlsx
+++ b/daily_training_report.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,278 +466,48 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45736</v>
+        <v>45835</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>HR Policies</t>
+          <t>Data Privacy</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Online</t>
+          <t>Blended</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45736</v>
+        <v>45835</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SQL</t>
+          <t>Communication</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Blended</t>
+          <t>Online</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>45736</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>HR</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Data Structures</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Offline</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>45736</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>HR</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Decision Making</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Blended</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
         <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>45736</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>HR</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Data Privacy</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Online</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>45736</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>HR</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Cloud Computing</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Online</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>45736</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>HR</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Teamwork</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Offline</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>45736</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>HR</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>HR Policies</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Online</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>45736</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>HR</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>HR Policies</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Offline</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>45736</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>HR</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Strategic Thinking</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Offline</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>45736</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>HR</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Teamwork</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Online</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>45736</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>HR</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>HR Policies</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Online</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>7.5</v>
       </c>
     </row>
   </sheetData>
